--- a/MedicalLink/Templates/BC_114_HauCanVaQuanLyMoYeuCau.xlsx
+++ b/MedicalLink/Templates/BC_114_HauCanVaQuanLyMoYeuCau.xlsx
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,40 +917,28 @@
         <v>12</v>
       </c>
       <c r="B9" s="36"/>
-      <c r="C9" s="14">
-        <f>SUM(C8:C8)</f>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
+        <f t="shared" ref="D9:J9" si="0">SUM(D8:D8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="14">
-        <f t="shared" ref="D9:K9" si="0">SUM(D8:D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <f>SUM(E8:E8)</f>
-        <v>0</v>
-      </c>
+      <c r="E9" s="14"/>
       <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G9" s="14"/>
       <c r="H9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I9" s="14"/>
       <c r="J9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(K8:K8)</f>
         <v>0</v>
       </c>
       <c r="L9" s="25"/>
